--- a/examples/apex_USp/src/gth_vs_gty_ports.xlsx
+++ b/examples/apex_USp/src/gth_vs_gty_ports.xlsx
@@ -4062,7 +4062,7 @@
   <dimension ref="A1:C948"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A348" activeCellId="1" sqref="B317:B327 A348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15444,8 +15444,8 @@
   </sheetPr>
   <dimension ref="A1:C376"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E313" activeCellId="0" sqref="E313"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B317" activeCellId="0" sqref="B317:B327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
